--- a/public/dist/expositions.xlsx
+++ b/public/dist/expositions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28760" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Nom</t>
   </si>
@@ -30,78 +30,175 @@
     <t>En-Tête?</t>
   </si>
   <si>
-    <t>Expo: Les voiles d'Antibes</t>
+    <t>Lien Maps</t>
+  </si>
+  <si>
+    <t>Lien Twitter</t>
+  </si>
+  <si>
+    <t>Lien Facebook</t>
+  </si>
+  <si>
+    <t>http://goo.gl/zkUYnX</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Traces &amp; Empreintes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,La Vieille Forge, Saint Paul, avec 2 invités Philippe Bellissent et Chantal Dachez. Du 17 au 30 mai 2014.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Les Voiles d'Antibes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 4-8 Juin,le grand rdv du yachting de tradition: j'y expose mes bleus,esplanade du chantier naval Opéra, Port Vauban, proche du Quai des Milliardaires.</t>
+    </r>
+  </si>
+  <si>
+    <t>Couleurs de Printemps, Saint Paul de Vence, La Vieille Forge. Avril 2014</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le Carré au Cercle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Saint Paul de Vence,La Vieille Forge.  Janvier à mars 2014. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La Menuiserie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Nice,centre d'art, Speed Arting, décembre 2013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nice, Espace Art&amp;Design - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Salon du Meuble Deco Maison Nov2013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nice, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art of Prom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, artfair/salon, juin 2013</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Expo "Malins Plaisirs", avril-mai 2013, Galerie des Dominicains, Vieux Nice. </t>
+  </si>
+  <si>
+    <t>7 au 14 juillet2014, expo Silver Light , Galerie des Dominicains, Nice</t>
   </si>
   <si>
     <t>Oui</t>
   </si>
   <si>
-    <t>Lien Maps</t>
-  </si>
-  <si>
-    <t>Lien Twitter</t>
-  </si>
-  <si>
-    <t>Lien Facebook</t>
-  </si>
-  <si>
-    <t>http://goo.gl/zkUYnX</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Traces &amp; Empreintes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,La Vieille Forge, Saint Paul, avec 2 invités Philippe Bellissent et Chantal Dachez. Du 17 au 30 mai 2014.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Les Voiles d'Antibes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 4-8 Juin,le grand rdv du yachting de tradition: j'y expose mes bleus,esplanade du chantier naval Opéra, Port Vauban, proche du Quai des Milliardaires.</t>
-    </r>
+    <t>Exposition: Silver Light</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,20 +568,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="140" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -498,40 +595,74 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/public/dist/expositions.xlsx
+++ b/public/dist/expositions.xlsx
@@ -39,9 +39,6 @@
     <t>Lien Facebook</t>
   </si>
   <si>
-    <t>http://goo.gl/zkUYnX</t>
-  </si>
-  <si>
     <t>Non</t>
   </si>
   <si>
@@ -192,13 +189,16 @@
   </si>
   <si>
     <t>Exposition: Silver Light</t>
+  </si>
+  <si>
+    <t>https://www.google.ca/maps/place/Galerie+des+Dominicains/@43.695834,7.271766,17z/data=!3m1!4b1!4m2!3m1!1s0x0:0x8724e442bfa2669b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +210,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,14 +240,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,14 +591,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="140" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -594,7 +613,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -604,64 +623,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="120">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/public/dist/expositions.xlsx
+++ b/public/dist/expositions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28760" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nom</t>
   </si>
@@ -182,23 +182,170 @@
     <t xml:space="preserve">Expo "Malins Plaisirs", avril-mai 2013, Galerie des Dominicains, Vieux Nice. </t>
   </si>
   <si>
-    <t>7 au 14 juillet2014, expo Silver Light , Galerie des Dominicains, Nice</t>
-  </si>
-  <si>
     <t>Oui</t>
   </si>
   <si>
-    <t>Exposition: Silver Light</t>
-  </si>
-  <si>
     <t>https://www.google.ca/maps/place/Galerie+des+Dominicains/@43.695834,7.271766,17z/data=!3m1!4b1!4m2!3m1!1s0x0:0x8724e442bfa2669b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Démarche : </t>
+  </si>
+  <si>
+    <t>Raconter une histoire, un petit rien ou un paysage imaginaire. Aspérités des grains de sable, assemblages de textures et de formes, collages, éraflures, marques, traces, écritures...je fais et défais, enlève et rajoute, à la recherche de textures qui vibrent et d'une poésie qui ne doit rien à la technique.</t>
+  </si>
+  <si>
+    <t>Telling a story, a sliver of nothing or an imaginary one. Done with grains of sand, texture and form, collages, marks and traces and writing. A reconstruction to touch with sight. Welcome to my colors of uplifting art!</t>
+  </si>
+  <si>
+    <t>Statement :</t>
+  </si>
+  <si>
+    <t>Washington DC, USA, Octobre04 : organise et participe à "14 Ways", exposition prestigieuse à l'Ambassade de France aux USA. Group exhibit at the Embassy of France, Washington , DC.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 au 14 juillet2014, expo Silver Light , Galerie des Dominicains, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9 rue St François de Paule, Nice. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Exposition ouverte tous les jours, à partir de 11h et en soirée. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sur toiles ou bois,  je travaille les pigments hauts en couleurs et textures,  et des remix d'images sous cire ou résine.​</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Invité cette année,  l'artiste Dejol présente ses "Battements d’Ailes", élégante série de petits objets d'art, en métal patiné or. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CORPS ACCORDS / BODY TALK </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exposition: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Silver Light</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">par le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cercle des Artistes de Saint Paul de Vence
+V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ernissage le samedi 5 juillet à 19h à la Vieille Forge, Place du Tilleul
+Le corps n'a cessé d'interroger les Artistes qui y ont trouvé une source inépuisable d'inspirations. C’est à cette inspiration que se nourrissent les Artistes du Cercle en cet été 2014 pour animer la vieille forge, place du tilleul avec un format unique de kakémono
+La Vieille Forge, place du Tilleul, Saint-Paul de Vence. Ouverture tous les jours de 15h à 19h, jusqu'au 31 aout2014.   http://www.cercledesartistesdesaintpauldevence.com/
+https://www.facebook.com/casp.saintpaul</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,6 +365,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -258,7 +413,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,20 +742,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="140" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -623,61 +778,93 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="110.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="110.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.5">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -685,6 +872,7 @@
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/public/dist/expositions.xlsx
+++ b/public/dist/expositions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Nom</t>
   </si>
@@ -51,55 +51,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Traces &amp; Empreintes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,La Vieille Forge, Saint Paul, avec 2 invités Philippe Bellissent et Chantal Dachez. Du 17 au 30 mai 2014.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Les Voiles d'Antibes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 4-8 Juin,le grand rdv du yachting de tradition: j'y expose mes bleus,esplanade du chantier naval Opéra, Port Vauban, proche du Quai des Milliardaires.</t>
-    </r>
-  </si>
-  <si>
-    <t>Couleurs de Printemps, Saint Paul de Vence, La Vieille Forge. Avril 2014</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Le Carré au Cercle</t>
     </r>
     <r>
@@ -179,25 +130,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Expo "Malins Plaisirs", avril-mai 2013, Galerie des Dominicains, Vieux Nice. </t>
-  </si>
-  <si>
     <t>Oui</t>
   </si>
   <si>
     <t>https://www.google.ca/maps/place/Galerie+des+Dominicains/@43.695834,7.271766,17z/data=!3m1!4b1!4m2!3m1!1s0x0:0x8724e442bfa2669b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Démarche : </t>
-  </si>
-  <si>
-    <t>Raconter une histoire, un petit rien ou un paysage imaginaire. Aspérités des grains de sable, assemblages de textures et de formes, collages, éraflures, marques, traces, écritures...je fais et défais, enlève et rajoute, à la recherche de textures qui vibrent et d'une poésie qui ne doit rien à la technique.</t>
-  </si>
-  <si>
-    <t>Telling a story, a sliver of nothing or an imaginary one. Done with grains of sand, texture and form, collages, marks and traces and writing. A reconstruction to touch with sight. Welcome to my colors of uplifting art!</t>
-  </si>
-  <si>
-    <t>Statement :</t>
   </si>
   <si>
     <t>Washington DC, USA, Octobre04 : organise et participe à "14 Ways", exposition prestigieuse à l'Ambassade de France aux USA. Group exhibit at the Embassy of France, Washington , DC.</t>
@@ -305,6 +241,133 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Démarche/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Statement</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Raconter une histoire, un petit rien ou un paysage imaginaire. Aspérités des grains de sable, assemblages de textures et de formes, collages, éraflures, marques, traces, écritures...je fais et défais, enlève et rajoute, à la recherche de textures qui vibrent et d'une poésie qui ne doit rien à la technique./ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Telling a story, a sliver of nothing or an imaginary one. Done with grains of sand, texture and form, collages, marks and traces and writing. A reconstruction to touch with sight. Welcome to my colors of uplifting art!</t>
+    </r>
+  </si>
+  <si>
+    <t>expositions récentes / last exhibits</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expo solo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Malins Plaisirs", avril-mai 2013, Galerie des Dominicains, Vieux Nice. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Les Voiles d'Antibes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 4-8 Juin,le grand rdv du yachting de tradition, blue exhibition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Traces &amp; Empreintes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,La Vieille Forge, Saint Paul, avec 2 invités Phil Bellissent et Ch Dachez, mai 2014.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -335,8 +398,8 @@
         <scheme val="minor"/>
       </rPr>
       <t>ernissage le samedi 5 juillet à 19h à la Vieille Forge, Place du Tilleul
-Le corps n'a cessé d'interroger les Artistes qui y ont trouvé une source inépuisable d'inspirations. C’est à cette inspiration que se nourrissent les Artistes du Cercle en cet été 2014 pour animer la vieille forge, place du tilleul avec un format unique de kakémono
-La Vieille Forge, place du Tilleul, Saint-Paul de Vence. Ouverture tous les jours de 15h à 19h, jusqu'au 31 aout2014.   http://www.cercledesartistesdesaintpauldevence.com/
+Le corps n'a cessé d'interroger les Artistes qui y ont trouvé une source inépuisable d'inspirations. C’est à cette inspiration que se nourrissent les Artistes du Cercle en cet été 2014 pour animer la vieille forge, place du tilleul. Format unique de kakémono en 150x70cm. 
+Tous les jours de 15h à 19h, jusque fin aout2014.   http://www.cercledesartistesdesaintpauldevence.com/
 https://www.facebook.com/casp.saintpaul</t>
     </r>
   </si>
@@ -345,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,6 +440,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -399,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -409,6 +505,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -780,28 +879,28 @@
     </row>
     <row r="2" spans="1:6" ht="110.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="94.5">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="110.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6" ht="63">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -810,18 +909,16 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -829,42 +926,37 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/dist/expositions.xlsx
+++ b/public/dist/expositions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Nom</t>
   </si>
@@ -42,14 +42,85 @@
     <t>Non</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>https://www.google.ca/maps/place/Galerie+des+Dominicains/@43.695834,7.271766,17z/data=!3m1!4b1!4m2!3m1!1s0x0:0x8724e442bfa2669b</t>
+  </si>
+  <si>
+    <t>Washington DC, USA, Oct 2004 :  "14 Ways", exposition à l'Ambassade de France aux USA. Group exhibit at the Embassy of France, Washington , DC.</t>
+  </si>
+  <si>
+    <t>http://www.whataboutnice.fr/christelle-dreux-des-energies-et-des-couleurs/</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exposition: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Silver Light</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Les Voiles d'Antibes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 4-8 Juin,le grand rdv du yachting de tradition, blue exhibition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Traces &amp; Empreintes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">,La Vieille Forge, Saint Paul, avec 2 invités Phil Bellissent et Ch Dachez, mai 2014. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>Le Carré au Cercle</t>
     </r>
@@ -57,22 +128,23 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">, Saint Paul de Vence,La Vieille Forge.  Janvier à mars 2014. </t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+      <t xml:space="preserve">2013  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>La Menuiserie</t>
     </r>
@@ -80,11 +152,10 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Nice,centre d'art, Speed Arting, décembre 2013</t>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">,Nice,centre d'art, Speed Arting, décembre 2013. Nice, Espace Art&amp;Design </t>
     </r>
   </si>
   <si>
@@ -96,9 +167,8 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>Salon du Meuble Deco Maison Nov2013</t>
     </r>
@@ -112,9 +182,8 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>Art of Prom</t>
     </r>
@@ -122,67 +191,214 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t>, artfair/salon, juin 2013</t>
     </r>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>https://www.google.ca/maps/place/Galerie+des+Dominicains/@43.695834,7.271766,17z/data=!3m1!4b1!4m2!3m1!1s0x0:0x8724e442bfa2669b</t>
-  </si>
-  <si>
-    <t>Washington DC, USA, Octobre04 : organise et participe à "14 Ways", exposition prestigieuse à l'Ambassade de France aux USA. Group exhibit at the Embassy of France, Washington , DC.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7 au 14 juillet2014, expo Silver Light , Galerie des Dominicains, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9 rue St François de Paule, Nice. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Expo solo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "Malins Plaisirs", avril-mai 2013, Galerie des Dominicains, Vieux Nice. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Raconter une histoire, un petit rien ou un paysage imaginaire. Aspérités des grains de sable, assemblages de textures et de formes, collages, éraflures, marques, traces, écritures...je fais et défais, enlève et rajoute, à la recherche de textures qui vibrent et d'une poésie qui ne doit rien à la technique. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Telling a story, a sliver of nothing or an imaginary one. Done with grains of sand, texture and form, collages, marks and traces and writing. A reconstruction to touch with sight. Welcome to my colors of uplifting art!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Démarche/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Statement :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Expositions récentes </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CORPS ACCORDS / BODY TALK  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>group show -  Cercle des Artistes de Saint Paul de Vence</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Le corps n'a cessé d'interroger les Artistes qui y ont trouvé une source inépuisable d'inspirations. C’est à cette inspiration que se nourrissent les Artistes du Cercle en cet été 2014 pour animer l'espace de la  Vieille Forge. Toile de 150x70cm, intitulée "Tatouage Aimant" 
+Tous les jours de 15h à 19h, jusque fin aout2014.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> La Vieille Forge, Place du Tilleul </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> http://www.cercledesartistesdesaintpauldevence.com/
+https://www.facebook.com/casp.saintpaul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 au 14 juillet 2014, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>expo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Silver Light</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> à la Galerie des Dominicains,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nice. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Exposition ouverte tous les jours, à partir de 11h et en soirée. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sur toiles ou bois,  je travaille les pigments hauts en couleurs et textures,  et des remix d'images sous cire ou résine.​</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -191,216 +407,10 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sur toiles ou bois,  je travaille les pigments hauts en couleurs et textures,  et des remix d'images sous cire ou résine.​</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Invité cette année,  l'artiste Dejol présente ses "Battements d’Ailes", élégante série de petits objets d'art, en métal patiné or. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CORPS ACCORDS / BODY TALK </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exposition: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Silver Light</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Démarche/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Statement</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Raconter une histoire, un petit rien ou un paysage imaginaire. Aspérités des grains de sable, assemblages de textures et de formes, collages, éraflures, marques, traces, écritures...je fais et défais, enlève et rajoute, à la recherche de textures qui vibrent et d'une poésie qui ne doit rien à la technique./ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Telling a story, a sliver of nothing or an imaginary one. Done with grains of sand, texture and form, collages, marks and traces and writing. A reconstruction to touch with sight. Welcome to my colors of uplifting art!</t>
-    </r>
-  </si>
-  <si>
-    <t>expositions récentes / last exhibits</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expo solo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Malins Plaisirs", avril-mai 2013, Galerie des Dominicains, Vieux Nice. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Les Voiles d'Antibes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 4-8 Juin,le grand rdv du yachting de tradition, blue exhibition.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Traces &amp; Empreintes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,La Vieille Forge, Saint Paul, avec 2 invités Phil Bellissent et Ch Dachez, mai 2014.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">par le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cercle des Artistes de Saint Paul de Vence
-V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ernissage le samedi 5 juillet à 19h à la Vieille Forge, Place du Tilleul
-Le corps n'a cessé d'interroger les Artistes qui y ont trouvé une source inépuisable d'inspirations. C’est à cette inspiration que se nourrissent les Artistes du Cercle en cet été 2014 pour animer la vieille forge, place du tilleul. Format unique de kakémono en 150x70cm. 
-Tous les jours de 15h à 19h, jusque fin aout2014.   http://www.cercledesartistesdesaintpauldevence.com/
-https://www.facebook.com/casp.saintpaul</t>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Merci à Anne Lombardo, journaliste,  pour son article     http://www.whataboutnice.fr/christelle-dreux-des-energies-et-des-couleurs/</t>
     </r>
   </si>
 </sst>
@@ -408,16 +418,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="11">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -433,45 +435,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <u/>
       <sz val="12"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,22 +512,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -842,19 +874,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="140" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="140" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3"/>
+    <col min="4" max="4" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -877,93 +911,97 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="110.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="60.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="63" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="94.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="94.5">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="63">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="18" ht="9.9499999999999993" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
